--- a/processed_and_split_Smiles.xlsx
+++ b/processed_and_split_Smiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0F35FCA35F72260E62355476585DCE3A874555B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EDE9A7-1936-4456-9B38-A34A9DB7C68A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0F35FCA35F72260E62355476585DCE3A874555B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6DA4375-F722-4C85-AF8B-C23C7CB57C32}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1281,12 +1281,12 @@
   <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>133</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>136</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>43</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>43</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>43</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>43</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>157</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>43</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>164</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>166</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>166</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>43</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>52</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>52</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>52</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>52</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>43</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>75</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>69</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>69</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>179</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>179</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>43</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>52</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>52</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>43</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>43</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>43</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>43</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>43</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>43</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>43</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>43</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>43</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>43</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>57</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>57</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>57</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>43</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>43</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>203</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>43</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>43</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>43</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>43</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>43</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>43</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>43</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>43</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>43</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>52</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>43</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>43</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>43</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>43</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>43</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>43</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>43</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>43</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>43</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>84</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>84</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>84</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>58</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>58</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>77</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>77</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>77</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>77</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>43</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>43</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>43</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>43</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>43</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>43</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>43</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>43</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>43</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>43</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>43</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>43</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>24</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>24</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>43</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>58</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>43</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>43</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>43</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>43</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>43</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>43</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>43</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>43</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>43</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>43</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>43</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>43</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>43</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>52</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>52</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>52</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>43</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>43</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>43</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>43</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>43</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>43</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>43</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>43</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>43</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>43</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>43</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>43</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>43</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>43</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>43</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>43</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>43</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>43</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>43</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>272</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>43</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>49</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>276</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>276</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>276</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>276</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>43</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>187</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>187</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>252</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>53</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>43</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>43</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>282</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>137</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>137</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>282</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>52</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>52</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>52</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>52</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>52</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>52</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>52</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>52</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>52</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>52</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>52</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>52</v>
       </c>

--- a/processed_and_split_Smiles.xlsx
+++ b/processed_and_split_Smiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive-工作账户\OneDrive - 76rp4l\学校用\毕业设计\Graduation-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A9005-6768-4BFE-B908-DA3A67BA00FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{445A9005-6768-4BFE-B908-DA3A67BA00FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51286E8B-4DF5-4317-9EA5-FE97E388F65C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
       <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>

--- a/processed_and_split_Smiles.xlsx
+++ b/processed_and_split_Smiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27616"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\OneDrive - 76rp4l\学校用\毕业设计\Graduation-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{445A9005-6768-4BFE-B908-DA3A67BA00FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51286E8B-4DF5-4317-9EA5-FE97E388F65C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C352BB-D5EF-4014-BD36-E8DAA3DF1575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -945,6 +945,1777 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$316</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="315"/>
+                <c:pt idx="0">
+                  <c:v>4.2940558215578663E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46459835653194698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10683287570931729</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3494971375522212E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4339796064914573E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.6411362722765654E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46206104309911122</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7846629553430959E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5540658682634729</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36664726340838372</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28485130744236431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2527637512566423</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22497574701862519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.59406447211325264</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.50686849735630224</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.53322360566263005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.56172778441071125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.2500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.26157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13322580645161289</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.441427155599603E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.4575607274577133E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.4816442988481452E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.4908701159505007E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1340106168771742</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6026767754912581</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.394240988079851</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.213734423154228</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1533443163097199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.88824384960544633</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.78424816889271876</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69418732413238637</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.1319213984989932</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.13196450564753209</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.1319814160562976</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.13199606056545629</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.7312374153395573E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.5020501315178723E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.4121427545598157E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.3342824601366752E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.27491467989834212</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.15691483422352109</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.1565155051215103</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.15572520941364179</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.15533418463678819</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.15798659261424541</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.1576220692330069</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.1569035244406031</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.15654940265698181</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.11498151198974919</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-7.9861364691319839E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-6.6084159126813161E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5.4153021573093943E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.8892307692307691E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2417391304347822E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2586861313868611E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8767567567567572E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.17466410256410261</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.15241884057971011</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.11864501216545011</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.1055234234234234</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.3510256410256397E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.6201449275362322E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.5104866180048669E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.079369369369369E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.35608768076148639</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.26834395791428128</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.23392316530231219</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.2041145651882621</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.1453646348160352</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.1118872040847904</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.8754416199913861E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.7381347983384719E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.4813472451034229E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.2830883490639021E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.2053138015223318E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.1379606056545627E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.1170297638660077</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.1000361442054773</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.3369754416199921E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.759662334181964E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.12645641588870579</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.8813461240909811E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.7969467183685202E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.8578507302693279E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.2715174812374147E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.0902522048584249E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.0191440471061329E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.9575639823127432E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.17333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.2471433278418452</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.19157419155191091</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.16977509694097381</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.15089695832775021</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-3.0000000000000031E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.2277869302580998E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.0068698746712053E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.9202068074105992E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.8451561034436553E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.11739224978403059</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.1069213698947125</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.9468826493880521E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.2119984410016583E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.1976425041186162</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.16195590283150241</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.14795648427401981</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.1358329090178213</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.2403468790042102</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.1884596936407241</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.16810498348413039</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.15047768993702271</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.0871242906827747E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.9065387590902063E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.8356972569294837E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.7743481173790699E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.2715174812374147E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.0902522048584249E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.0191440471061329E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.9575639823127432E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.17569483800109839</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.13525002320903609</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.1193840155105558</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.1056439635535308</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-2.9999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>7.2201319787662477E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5.5130095930682348E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.8433262961367241E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.2633767921747293E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.0233168588687546E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>7.3579421321367786E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6.7046359327875921E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6.1388690874983248E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.47780889621087308</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.44874980659136621</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.43735028005170179</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.42747822591451162</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>8.6097565440234308E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.9217236577440833E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6.2595289386758596E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5.6860645852874182E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.4528024894746478E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.2001640105214302E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.101057015654172E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.0152298003483862E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.35608768076148639</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.26834395791428128</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.23392316530231219</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.2041145651882621</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.36296448837634998</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.32614497911186757</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.31170113456843318</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.29919268390727588</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.5709542375983889E-3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.3001892310072719E-3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.1939714203647849E-3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.10198619857966E-3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>6.7138422112392473E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5.4336561968126272E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.9314548326870607E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.4965456250837477E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.3510256410256397E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.6201449275362322E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.5104866180048669E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.079369369369369E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.33995442064799558</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.30545737273711898</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.29192460146488591</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.28020514538389391</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>9.1483221476510071E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.4290780141843983E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4.3947068867387598E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4.3330683624801282E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4.3053278688524592E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.6379492952590163E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4.8675718706483059E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4.5653622002010633E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4.3036469248291569E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-9.9999999999999742E-4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.6402526084568933E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.6689927278353708E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>8.9569151227918975E-3</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.2600830765107942E-3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.91483800109829772</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.69901903140956212</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.61435588108573902</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.54103711644110963</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.81466776496430549</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.58185517561503963</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.49052563550193901</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.4114337397829293</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.49426505583013008</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.35435092062509682</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.29946431136004598</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.25193219884764839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2704-4577-B405-A189567E5B97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1856122368"/>
+        <c:axId val="1856129088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1856122368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1856129088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1856129088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1856122368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1128711</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4FD500-E4B0-4345-1A9D-4D0004F90F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1234,18 +3005,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C318" sqref="C318"/>
+    <sheetView tabSelected="1" topLeftCell="B280" workbookViewId="0">
+      <selection activeCell="L285" sqref="L285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +3045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +3071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1326,7 +3097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1352,7 +3123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1378,7 +3149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1404,7 +3175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1430,7 +3201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1456,7 +3227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1482,7 +3253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1508,7 +3279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +3305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1560,7 +3331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1586,7 +3357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1612,7 +3383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1638,7 +3409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1664,7 +3435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1690,7 +3461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1716,7 +3487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1742,7 +3513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1768,7 +3539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1794,7 +3565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1820,7 +3591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1846,7 +3617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1872,7 +3643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1898,7 +3669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1924,7 +3695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1950,7 +3721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1976,7 +3747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2002,7 +3773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2028,7 +3799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2054,7 +3825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2080,7 +3851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2106,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2132,7 +3903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2158,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2184,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2210,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2236,7 +4007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -2262,7 +4033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2288,7 +4059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2314,7 +4085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2340,7 +4111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2366,7 +4137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2392,7 +4163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2418,7 +4189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2444,7 +4215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2470,7 +4241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2496,7 +4267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2522,7 +4293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2548,7 +4319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -2574,7 +4345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -2600,7 +4371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -2626,7 +4397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -2652,7 +4423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2678,7 +4449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2704,7 +4475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -2730,7 +4501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -2756,7 +4527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -2782,7 +4553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -2808,7 +4579,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2834,7 +4605,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -2860,7 +4631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2886,7 +4657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -2912,7 +4683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -2938,7 +4709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -2964,7 +4735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -2990,7 +4761,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -3016,7 +4787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -3042,7 +4813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -3068,7 +4839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -3094,7 +4865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -3120,7 +4891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -3146,7 +4917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -3172,7 +4943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -3198,7 +4969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -3224,7 +4995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -3250,7 +5021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -3276,7 +5047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -3302,7 +5073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -3328,7 +5099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -3354,7 +5125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -3380,7 +5151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -3406,7 +5177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -3432,7 +5203,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -3458,7 +5229,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -3484,7 +5255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -3510,7 +5281,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -3536,7 +5307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -3562,7 +5333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>125</v>
       </c>
@@ -3588,7 +5359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -3614,7 +5385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -3640,7 +5411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -3666,7 +5437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -3692,7 +5463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +5489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -3744,7 +5515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -3770,7 +5541,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -3796,7 +5567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -3822,7 +5593,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -3848,7 +5619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -3874,7 +5645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>48</v>
       </c>
@@ -3900,7 +5671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -3926,7 +5697,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -3952,7 +5723,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -3978,7 +5749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -4004,7 +5775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -4030,7 +5801,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -4056,7 +5827,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -4082,7 +5853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -4108,7 +5879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -4134,7 +5905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -4160,7 +5931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -4186,7 +5957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -4212,7 +5983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -4238,7 +6009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>39</v>
       </c>
@@ -4264,7 +6035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -4290,7 +6061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>39</v>
       </c>
@@ -4316,7 +6087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -4342,7 +6113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -4368,7 +6139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -4394,7 +6165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>145</v>
       </c>
@@ -4420,7 +6191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -4446,7 +6217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -4472,7 +6243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -4498,7 +6269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -4524,7 +6295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>54</v>
       </c>
@@ -4550,7 +6321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -4576,7 +6347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -4602,7 +6373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -4628,7 +6399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -4654,7 +6425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -4680,7 +6451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>156</v>
       </c>
@@ -4706,7 +6477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>156</v>
       </c>
@@ -4732,7 +6503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -4758,7 +6529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>54</v>
       </c>
@@ -4784,7 +6555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -4810,7 +6581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -4836,7 +6607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>71</v>
       </c>
@@ -4862,7 +6633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>65</v>
       </c>
@@ -4888,7 +6659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>110</v>
       </c>
@@ -4914,7 +6685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>166</v>
       </c>
@@ -4940,7 +6711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -4966,7 +6737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -4992,7 +6763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>48</v>
       </c>
@@ -5018,7 +6789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>48</v>
       </c>
@@ -5044,7 +6815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>48</v>
       </c>
@@ -5070,7 +6841,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>48</v>
       </c>
@@ -5096,7 +6867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -5122,7 +6893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -5148,7 +6919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -5174,7 +6945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -5200,7 +6971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -5226,7 +6997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -5252,7 +7023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -5278,7 +7049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -5304,7 +7075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -5330,7 +7101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -5356,7 +7127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -5382,7 +7153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -5408,7 +7179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -5434,7 +7205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -5460,7 +7231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -5486,7 +7257,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -5512,7 +7283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -5538,7 +7309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -5564,7 +7335,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>53</v>
       </c>
@@ -5590,7 +7361,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -5616,7 +7387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -5642,7 +7413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -5668,7 +7439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -5694,7 +7465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -5720,7 +7491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -5746,7 +7517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -5772,7 +7543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -5798,7 +7569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>39</v>
       </c>
@@ -5824,7 +7595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -5850,7 +7621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -5876,7 +7647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -5902,7 +7673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -5928,7 +7699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>39</v>
       </c>
@@ -5954,7 +7725,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -5980,7 +7751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -6006,7 +7777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -6032,7 +7803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -6058,7 +7829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -6084,7 +7855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -6110,7 +7881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>39</v>
       </c>
@@ -6136,7 +7907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -6162,7 +7933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -6188,7 +7959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -6214,7 +7985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -6240,7 +8011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -6266,7 +8037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -6292,7 +8063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>39</v>
       </c>
@@ -6318,7 +8089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -6344,7 +8115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -6370,7 +8141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -6396,7 +8167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -6422,7 +8193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>48</v>
       </c>
@@ -6448,7 +8219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>39</v>
       </c>
@@ -6474,7 +8245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -6500,7 +8271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>39</v>
       </c>
@@ -6526,7 +8297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>39</v>
       </c>
@@ -6552,7 +8323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>39</v>
       </c>
@@ -6578,7 +8349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>39</v>
       </c>
@@ -6604,7 +8375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -6630,7 +8401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -6656,7 +8427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>39</v>
       </c>
@@ -6682,7 +8453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>39</v>
       </c>
@@ -6708,7 +8479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -6734,7 +8505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>80</v>
       </c>
@@ -6760,7 +8531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>80</v>
       </c>
@@ -6786,7 +8557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>80</v>
       </c>
@@ -6812,7 +8583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>80</v>
       </c>
@@ -6838,7 +8609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>39</v>
       </c>
@@ -6864,7 +8635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>39</v>
       </c>
@@ -6890,7 +8661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>54</v>
       </c>
@@ -6916,7 +8687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>54</v>
       </c>
@@ -6942,7 +8713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>73</v>
       </c>
@@ -6968,7 +8739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>73</v>
       </c>
@@ -6994,7 +8765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>73</v>
       </c>
@@ -7020,7 +8791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>73</v>
       </c>
@@ -7046,7 +8817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>39</v>
       </c>
@@ -7072,7 +8843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>39</v>
       </c>
@@ -7098,7 +8869,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>39</v>
       </c>
@@ -7124,7 +8895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>39</v>
       </c>
@@ -7150,7 +8921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>39</v>
       </c>
@@ -7176,7 +8947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>39</v>
       </c>
@@ -7202,7 +8973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>39</v>
       </c>
@@ -7228,7 +8999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -7254,7 +9025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>39</v>
       </c>
@@ -7280,7 +9051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>39</v>
       </c>
@@ -7306,7 +9077,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>39</v>
       </c>
@@ -7332,7 +9103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>39</v>
       </c>
@@ -7358,7 +9129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -7384,7 +9155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -7410,7 +9181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -7436,7 +9207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>24</v>
       </c>
@@ -7462,7 +9233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -7488,7 +9259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>54</v>
       </c>
@@ -7514,7 +9285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -7540,7 +9311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -7566,7 +9337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>39</v>
       </c>
@@ -7592,7 +9363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>39</v>
       </c>
@@ -7618,7 +9389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -7644,7 +9415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -7670,7 +9441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>39</v>
       </c>
@@ -7696,7 +9467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -7722,7 +9493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -7748,7 +9519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -7774,7 +9545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -7800,7 +9571,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>39</v>
       </c>
@@ -7826,7 +9597,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>39</v>
       </c>
@@ -7852,7 +9623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>48</v>
       </c>
@@ -7878,7 +9649,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>48</v>
       </c>
@@ -7904,7 +9675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>48</v>
       </c>
@@ -7930,7 +9701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>48</v>
       </c>
@@ -7956,7 +9727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>39</v>
       </c>
@@ -7982,7 +9753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>39</v>
       </c>
@@ -8008,7 +9779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>39</v>
       </c>
@@ -8034,7 +9805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>39</v>
       </c>
@@ -8060,7 +9831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>39</v>
       </c>
@@ -8086,7 +9857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>39</v>
       </c>
@@ -8112,7 +9883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -8138,7 +9909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -8164,7 +9935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -8190,7 +9961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -8216,7 +9987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -8242,7 +10013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>39</v>
       </c>
@@ -8268,7 +10039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -8294,7 +10065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -8320,7 +10091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -8346,7 +10117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -8372,7 +10143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -8398,7 +10169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -8424,7 +10195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>39</v>
       </c>
@@ -8450,7 +10221,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>39</v>
       </c>
@@ -8476,7 +10247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>39</v>
       </c>
@@ -8502,7 +10273,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -8528,7 +10299,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>39</v>
       </c>
@@ -8554,7 +10325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -8580,7 +10351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>39</v>
       </c>
@@ -8606,7 +10377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>39</v>
       </c>
@@ -8632,7 +10403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>39</v>
       </c>
@@ -8658,7 +10429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>39</v>
       </c>
@@ -8684,7 +10455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>254</v>
       </c>
@@ -8710,7 +10481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>39</v>
       </c>
@@ -8736,7 +10507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>39</v>
       </c>
@@ -8762,7 +10533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>45</v>
       </c>
@@ -8788,7 +10559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>258</v>
       </c>
@@ -8814,7 +10585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>258</v>
       </c>
@@ -8840,7 +10611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>258</v>
       </c>
@@ -8866,7 +10637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>258</v>
       </c>
@@ -8892,7 +10663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>39</v>
       </c>
@@ -8918,7 +10689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -8944,7 +10715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>174</v>
       </c>
@@ -8970,7 +10741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>174</v>
       </c>
@@ -8996,7 +10767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>234</v>
       </c>
@@ -9022,7 +10793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>49</v>
       </c>
@@ -9048,7 +10819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>39</v>
       </c>
@@ -9074,7 +10845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>39</v>
       </c>
@@ -9100,7 +10871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>264</v>
       </c>
@@ -9126,7 +10897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>126</v>
       </c>
@@ -9152,7 +10923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>48</v>
       </c>
@@ -9178,7 +10949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>48</v>
       </c>
@@ -9204,7 +10975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>48</v>
       </c>
@@ -9230,7 +11001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>48</v>
       </c>
@@ -9256,7 +11027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>48</v>
       </c>
@@ -9282,7 +11053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>48</v>
       </c>
@@ -9308,7 +11079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>48</v>
       </c>
@@ -9334,7 +11105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>48</v>
       </c>
@@ -9360,7 +11131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>48</v>
       </c>
@@ -9386,7 +11157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>48</v>
       </c>
@@ -9412,7 +11183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>48</v>
       </c>
@@ -9438,7 +11209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>48</v>
       </c>
@@ -9473,5 +11244,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>